--- a/results/DANNIEL.xlsx
+++ b/results/DANNIEL.xlsx
@@ -67,121 +67,121 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>DUTA SEHAT AP</t>
+  </si>
+  <si>
+    <t>D-VIT FLASH TABLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D-VIT SYRUP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
+    <t>ZEMINDO SYRUP</t>
+  </si>
+  <si>
+    <t>PRIMAYA RS - TGR</t>
+  </si>
+  <si>
+    <t>SANTY MEDIKA AP</t>
+  </si>
+  <si>
+    <t>KIMIA FARMA BUNDA DALIMA AP</t>
+  </si>
+  <si>
+    <t>PRO HEMAT AP</t>
+  </si>
+  <si>
+    <t>ARCHA MEDICA AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML SUSPENSI</t>
+  </si>
+  <si>
+    <t>PHARMAPLUS (ALAM SUTERA) AP</t>
+  </si>
+  <si>
+    <t>BERSAMA AP/PT.BUNDATAMA GEMBALA</t>
+  </si>
+  <si>
+    <t>BETHSAIDA HOSPITAL INTERNATIONAL PT</t>
+  </si>
+  <si>
+    <t>SILOAM HOSPITALS</t>
+  </si>
+  <si>
+    <t>CK FARMA AP</t>
+  </si>
+  <si>
+    <t>MILLENNIUM PHARMA AP</t>
+  </si>
+  <si>
+    <t>PERUMNAS DASANA AP</t>
+  </si>
+  <si>
+    <t>GASTROLAN 30 MG KAPSUL</t>
+  </si>
+  <si>
+    <t>MOM &amp; CHILD CARE CLINIC AP</t>
+  </si>
+  <si>
+    <t>PBF.BERKAT MAHKOTA PUTRA</t>
+  </si>
+  <si>
+    <t>CALNIC 30 KAPLET</t>
+  </si>
+  <si>
+    <t>RAPHA</t>
+  </si>
+  <si>
+    <t>GLOBAL PHARMA</t>
+  </si>
+  <si>
+    <t>AWAL BROSS AP</t>
+  </si>
+  <si>
+    <t>ALPHARMA AP.</t>
+  </si>
+  <si>
+    <t>SATRIO AP</t>
+  </si>
+  <si>
+    <t>AMOR MEDIKA</t>
+  </si>
+  <si>
+    <t>LILY FARMA AP - TANGERANG</t>
+  </si>
+  <si>
+    <t>TIRTA SARI AP</t>
+  </si>
+  <si>
+    <t>HARAPAN JAYA AP</t>
+  </si>
+  <si>
+    <t>BUSMIN SIRUP</t>
+  </si>
+  <si>
+    <t>HI-SQUA</t>
+  </si>
+  <si>
+    <t>EKA HOSPITAL</t>
+  </si>
+  <si>
+    <t>PERUMNAS AP</t>
+  </si>
+  <si>
+    <t>JURUMUDI AP</t>
+  </si>
+  <si>
     <t>LILY MEDIKA SEHAT AP</t>
-  </si>
-  <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DUTA SEHAT AP</t>
-  </si>
-  <si>
-    <t>D-VIT FLASH TABLET</t>
-  </si>
-  <si>
-    <t>D-VIT SYRUP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t>ZEMINDO SYRUP</t>
-  </si>
-  <si>
-    <t>AWAL BROSS AP</t>
-  </si>
-  <si>
-    <t>KIMIA FARMA BUNDA DALIMA AP</t>
-  </si>
-  <si>
-    <t>SANTY MEDIKA AP</t>
-  </si>
-  <si>
-    <t>BERSAMA AP/PT.BUNDATAMA GEMBALA</t>
-  </si>
-  <si>
-    <t>PRO HEMAT AP</t>
-  </si>
-  <si>
-    <t>RAPHA</t>
-  </si>
-  <si>
-    <t>SATRIO AP</t>
-  </si>
-  <si>
-    <t>PERUMNAS DASANA AP</t>
-  </si>
-  <si>
-    <t>GASTROLAN 30 MG KAPSUL</t>
-  </si>
-  <si>
-    <t>SILOAM HOSPITALS</t>
-  </si>
-  <si>
-    <t>TIRTA SARI AP</t>
-  </si>
-  <si>
-    <t>AMOR MEDIKA</t>
-  </si>
-  <si>
-    <t>PRIMAYA RS - TGR</t>
-  </si>
-  <si>
-    <t>MOM &amp; CHILD CARE CLINIC AP</t>
-  </si>
-  <si>
-    <t>JURUMUDI AP</t>
-  </si>
-  <si>
-    <t>PBF.BERKAT MAHKOTA PUTRA</t>
-  </si>
-  <si>
-    <t>CALNIC 30 KAPLET</t>
-  </si>
-  <si>
-    <t>PERUMNAS AP</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML SUSPENSI</t>
-  </si>
-  <si>
-    <t>ARCHA MEDICA AP</t>
-  </si>
-  <si>
-    <t>CK FARMA AP</t>
-  </si>
-  <si>
-    <t>HARAPAN JAYA AP</t>
-  </si>
-  <si>
-    <t>BUSMIN SIRUP</t>
-  </si>
-  <si>
-    <t>HI-SQUA</t>
-  </si>
-  <si>
-    <t>ALPHARMA AP.</t>
-  </si>
-  <si>
-    <t>PHARMAPLUS (ALAM SUTERA) AP</t>
-  </si>
-  <si>
-    <t>LILY FARMA AP - TANGERANG</t>
-  </si>
-  <si>
-    <t>EKA HOSPITAL</t>
-  </si>
-  <si>
-    <t>GLOBAL PHARMA</t>
-  </si>
-  <si>
-    <t>BETHSAIDA HOSPITAL INTERNATIONAL PT</t>
-  </si>
-  <si>
-    <t>MILLENNIUM PHARMA AP</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -893,32 +893,32 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G12" s="11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H12" s="11">
-        <v>138000</v>
+        <v>1050000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="8"/>
       <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" s="12">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="12">
-        <v>1050000</v>
+        <v>360000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -928,16 +928,16 @@
         <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G14" s="11">
         <v>12</v>
       </c>
       <c r="H14" s="11">
-        <v>360000</v>
+        <v>720000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
@@ -947,16 +947,16 @@
         <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="12">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G15" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H15" s="12">
-        <v>720000</v>
+        <v>690000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -966,35 +966,35 @@
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F16" s="11">
-        <v>138000</v>
+        <v>37500</v>
       </c>
       <c r="G16" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H16" s="11">
-        <v>690000</v>
+        <v>450000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="8"/>
       <c r="D17" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" s="12">
-        <v>37500</v>
+        <v>75000</v>
       </c>
       <c r="G17" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17" s="12">
-        <v>450000</v>
+        <v>375000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -1004,16 +1004,16 @@
         <v>25</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="11">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G18" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18" s="11">
-        <v>750000</v>
+        <v>138000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -1023,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="12">
         <v>60000</v>
@@ -1042,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="11">
         <v>60000</v>
@@ -1061,16 +1061,16 @@
         <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" s="12">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="12">
-        <v>138000</v>
+        <v>120000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
@@ -1080,16 +1080,16 @@
         <v>28</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F22" s="11">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G22" s="11">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H22" s="11">
-        <v>2475000</v>
+        <v>165000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -1099,111 +1099,111 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F23" s="12">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G23" s="12">
-        <v>28</v>
+        <v>-3</v>
       </c>
       <c r="H23" s="12">
-        <v>1680000</v>
+        <v>-165000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="11">
         <v>60000</v>
       </c>
       <c r="G24" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="11">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="8"/>
       <c r="D25" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F25" s="12">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H25" s="12">
-        <v>276000</v>
+        <v>360000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="11">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H26" s="11">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F27" s="12">
-        <v>280000</v>
+        <v>55000</v>
       </c>
       <c r="G27" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="12">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="8"/>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F28" s="11">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G28" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H28" s="11">
-        <v>750000</v>
+        <v>330000</v>
       </c>
       <c r="I28" s="10"/>
     </row>
@@ -1213,35 +1213,35 @@
         <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="12">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G29" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H29" s="12">
-        <v>525000</v>
+        <v>414000</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="11">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="11">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H30" s="11">
-        <v>1500000</v>
+        <v>720000</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -1251,16 +1251,16 @@
         <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" s="12">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G31" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H31" s="12">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -1270,73 +1270,73 @@
         <v>19</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F32" s="11">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G32" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H32" s="11">
-        <v>300000</v>
+        <v>750000</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="8"/>
       <c r="D33" s="12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33" s="12">
         <v>75000</v>
       </c>
       <c r="G33" s="12">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H33" s="12">
-        <v>2100000</v>
+        <v>450000</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="11">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G34" s="11">
         <v>5</v>
       </c>
       <c r="H34" s="11">
-        <v>375000</v>
+        <v>690000</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="8"/>
       <c r="D35" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="12">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H35" s="12">
-        <v>225000</v>
+        <v>600000</v>
       </c>
       <c r="I35" s="10"/>
     </row>
@@ -1346,16 +1346,16 @@
         <v>19</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F36" s="11">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G36" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H36" s="11">
-        <v>75000</v>
+        <v>330000</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -1365,16 +1365,16 @@
         <v>19</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="12">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G37" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H37" s="12">
-        <v>375000</v>
+        <v>180000</v>
       </c>
       <c r="I37" s="10"/>
     </row>
@@ -1387,70 +1387,70 @@
         <v>21</v>
       </c>
       <c r="F38" s="11">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H38" s="11">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="8"/>
       <c r="D39" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F39" s="12">
         <v>75000</v>
       </c>
       <c r="G39" s="12">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H39" s="12">
-        <v>300000</v>
+        <v>2475000</v>
       </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G40" s="11">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H40" s="11">
-        <v>120000</v>
+        <v>1680000</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="8"/>
       <c r="D41" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="12">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G41" s="12">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H41" s="12">
-        <v>690000</v>
+        <v>2025000</v>
       </c>
       <c r="I41" s="10"/>
     </row>
@@ -1460,16 +1460,16 @@
         <v>19</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F42" s="11">
-        <v>112500</v>
+        <v>75000</v>
       </c>
       <c r="G42" s="11">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H42" s="11">
-        <v>562500</v>
+        <v>2700000</v>
       </c>
       <c r="I42" s="10"/>
     </row>
@@ -1479,16 +1479,16 @@
         <v>19</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F43" s="12">
         <v>75000</v>
       </c>
       <c r="G43" s="12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H43" s="12">
-        <v>1125000</v>
+        <v>2625000</v>
       </c>
       <c r="I43" s="10"/>
     </row>
@@ -1498,16 +1498,16 @@
         <v>19</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F44" s="11">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G44" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H44" s="11">
-        <v>1440000</v>
+        <v>2100000</v>
       </c>
       <c r="I44" s="10"/>
     </row>
@@ -1520,32 +1520,32 @@
         <v>18</v>
       </c>
       <c r="F45" s="12">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G45" s="12">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H45" s="12">
-        <v>690000</v>
+        <v>2025000</v>
       </c>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G46" s="11">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H46" s="11">
-        <v>55000</v>
+        <v>2925000</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -1555,35 +1555,35 @@
         <v>19</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F47" s="12">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G47" s="12">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="H47" s="12">
-        <v>-55000</v>
+        <v>2325000</v>
       </c>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="8"/>
       <c r="D48" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F48" s="11">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G48" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H48" s="11">
-        <v>165000</v>
+        <v>750000</v>
       </c>
       <c r="I48" s="10"/>
     </row>
@@ -1593,35 +1593,35 @@
         <v>19</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F49" s="12">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G49" s="12">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="H49" s="12">
-        <v>-165000</v>
+        <v>525000</v>
       </c>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="8"/>
       <c r="D50" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50" s="11">
         <v>60000</v>
       </c>
       <c r="G50" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="11">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="I50" s="10"/>
     </row>
@@ -1631,16 +1631,16 @@
         <v>19</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F51" s="12">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G51" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H51" s="12">
-        <v>360000</v>
+        <v>150000</v>
       </c>
       <c r="I51" s="10"/>
     </row>
@@ -1650,26 +1650,26 @@
         <v>19</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F52" s="11">
+        <v>30000</v>
+      </c>
+      <c r="G52" s="11">
+        <v>2</v>
+      </c>
+      <c r="H52" s="11">
         <v>60000</v>
-      </c>
-      <c r="G52" s="11">
-        <v>5</v>
-      </c>
-      <c r="H52" s="11">
-        <v>300000</v>
       </c>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="8"/>
       <c r="D53" s="12" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F53" s="12">
         <v>60000</v>
@@ -1688,13 +1688,13 @@
         <v>19</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="11">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G54" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="11">
         <v>150000</v>
@@ -1707,16 +1707,16 @@
         <v>19</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" s="12">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G55" s="12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="12">
-        <v>60000</v>
+        <v>-60000</v>
       </c>
       <c r="I55" s="10"/>
     </row>
@@ -1726,16 +1726,16 @@
         <v>19</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F56" s="11">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G56" s="11">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="H56" s="11">
-        <v>60000</v>
+        <v>-150000</v>
       </c>
       <c r="I56" s="10"/>
     </row>
@@ -1745,16 +1745,16 @@
         <v>19</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" s="12">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H57" s="12">
-        <v>150000</v>
+        <v>60000</v>
       </c>
       <c r="I57" s="10"/>
     </row>
@@ -1764,92 +1764,92 @@
         <v>19</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F58" s="11">
         <v>60000</v>
       </c>
       <c r="G58" s="11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="11">
-        <v>-60000</v>
+        <v>120000</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="8"/>
       <c r="D59" s="12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F59" s="12">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="G59" s="12">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="H59" s="12">
-        <v>-150000</v>
+        <v>300000</v>
       </c>
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="8"/>
       <c r="D60" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F60" s="11">
-        <v>60000</v>
+        <v>280000</v>
       </c>
       <c r="G60" s="11">
         <v>1</v>
       </c>
       <c r="H60" s="11">
-        <v>60000</v>
+        <v>280000</v>
       </c>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="8"/>
       <c r="D61" s="12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F61" s="12">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G61" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="12">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="8"/>
       <c r="D62" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11">
         <v>75000</v>
       </c>
       <c r="G62" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="11">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="I62" s="10"/>
     </row>
@@ -1859,16 +1859,16 @@
         <v>19</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F63" s="12">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G63" s="12">
         <v>5</v>
       </c>
       <c r="H63" s="12">
-        <v>275000</v>
+        <v>375000</v>
       </c>
       <c r="I63" s="10"/>
     </row>
@@ -1878,16 +1878,16 @@
         <v>19</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F64" s="11">
         <v>75000</v>
       </c>
       <c r="G64" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" s="11">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="I64" s="10"/>
     </row>
@@ -1897,35 +1897,35 @@
         <v>19</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F65" s="12">
-        <v>112500</v>
+        <v>75000</v>
       </c>
       <c r="G65" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="12">
-        <v>112500</v>
+        <v>300000</v>
       </c>
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="3:9">
       <c r="C66" s="8"/>
       <c r="D66" s="11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F66" s="11">
-        <v>165000</v>
+        <v>138000</v>
       </c>
       <c r="G66" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" s="11">
-        <v>330000</v>
+        <v>690000</v>
       </c>
       <c r="I66" s="10"/>
     </row>
@@ -1935,54 +1935,54 @@
         <v>19</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F67" s="12">
-        <v>55000</v>
+        <v>112500</v>
       </c>
       <c r="G67" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H67" s="12">
-        <v>660000</v>
+        <v>562500</v>
       </c>
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="3:9">
       <c r="C68" s="8"/>
       <c r="D68" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11">
         <v>75000</v>
       </c>
       <c r="G68" s="11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H68" s="11">
-        <v>75000</v>
+        <v>1125000</v>
       </c>
       <c r="I68" s="10"/>
     </row>
     <row r="69" spans="3:9">
       <c r="C69" s="8"/>
       <c r="D69" s="12" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F69" s="12">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G69" s="12">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H69" s="12">
-        <v>330000</v>
+        <v>1440000</v>
       </c>
       <c r="I69" s="10"/>
     </row>
@@ -1992,149 +1992,149 @@
         <v>19</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F70" s="11">
-        <v>55000</v>
+        <v>138000</v>
       </c>
       <c r="G70" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H70" s="11">
-        <v>330000</v>
+        <v>690000</v>
       </c>
       <c r="I70" s="10"/>
     </row>
     <row r="71" spans="3:9">
       <c r="C71" s="8"/>
       <c r="D71" s="12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F71" s="12">
         <v>138000</v>
       </c>
       <c r="G71" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="12">
-        <v>414000</v>
+        <v>276000</v>
       </c>
       <c r="I71" s="10"/>
     </row>
     <row r="72" spans="3:9">
       <c r="C72" s="8"/>
       <c r="D72" s="11" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" s="11">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G72" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H72" s="11">
-        <v>720000</v>
+        <v>138000</v>
       </c>
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="3:9">
       <c r="C73" s="8"/>
       <c r="D73" s="12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F73" s="12">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="G73" s="12">
         <v>10</v>
       </c>
       <c r="H73" s="12">
-        <v>300000</v>
+        <v>750000</v>
       </c>
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="3:9">
       <c r="C74" s="8"/>
       <c r="D74" s="11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F74" s="11">
         <v>75000</v>
       </c>
       <c r="G74" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H74" s="11">
-        <v>750000</v>
+        <v>75000</v>
       </c>
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="8"/>
       <c r="D75" s="12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" s="12">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G75" s="12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H75" s="12">
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="3:9">
       <c r="C76" s="8"/>
       <c r="D76" s="11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="11">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G76" s="11">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H76" s="11">
-        <v>690000</v>
+        <v>2100000</v>
       </c>
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="3:9">
       <c r="C77" s="8"/>
       <c r="D77" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F77" s="12">
         <v>60000</v>
       </c>
       <c r="G77" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H77" s="12">
-        <v>600000</v>
+        <v>60000</v>
       </c>
       <c r="I77" s="10"/>
     </row>
@@ -2144,16 +2144,16 @@
         <v>19</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F78" s="11">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G78" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H78" s="11">
-        <v>330000</v>
+        <v>150000</v>
       </c>
       <c r="I78" s="10"/>
     </row>
@@ -2163,16 +2163,16 @@
         <v>19</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" s="12">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G79" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H79" s="12">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="I79" s="10"/>
     </row>
@@ -2182,35 +2182,35 @@
         <v>19</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F80" s="11">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G80" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H80" s="11">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="I80" s="10"/>
     </row>
     <row r="81" spans="3:9">
       <c r="C81" s="8"/>
       <c r="D81" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F81" s="12">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G81" s="12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H81" s="12">
-        <v>60000</v>
+        <v>1500000</v>
       </c>
       <c r="I81" s="10"/>
     </row>
@@ -2223,13 +2223,13 @@
         <v>21</v>
       </c>
       <c r="F82" s="11">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G82" s="11">
         <v>2</v>
       </c>
       <c r="H82" s="11">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="I82" s="10"/>
     </row>
@@ -2239,26 +2239,26 @@
         <v>19</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F83" s="12">
         <v>60000</v>
       </c>
       <c r="G83" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H83" s="12">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="3:9">
       <c r="C84" s="8"/>
       <c r="D84" s="11" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F84" s="11">
         <v>75000</v>
@@ -2274,19 +2274,19 @@
     <row r="85" spans="3:9">
       <c r="C85" s="8"/>
       <c r="D85" s="12" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F85" s="12">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G85" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H85" s="12">
-        <v>300000</v>
+        <v>275000</v>
       </c>
       <c r="I85" s="10"/>
     </row>
@@ -2296,16 +2296,16 @@
         <v>19</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F86" s="11">
         <v>75000</v>
       </c>
       <c r="G86" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86" s="11">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="I86" s="10"/>
     </row>
@@ -2315,16 +2315,16 @@
         <v>19</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F87" s="12">
-        <v>75000</v>
+        <v>112500</v>
       </c>
       <c r="G87" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H87" s="12">
-        <v>450000</v>
+        <v>112500</v>
       </c>
       <c r="I87" s="10"/>
     </row>
@@ -2334,54 +2334,54 @@
         <v>19</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F88" s="11">
-        <v>75000</v>
+        <v>165000</v>
       </c>
       <c r="G88" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H88" s="11">
-        <v>750000</v>
+        <v>330000</v>
       </c>
       <c r="I88" s="10"/>
     </row>
     <row r="89" spans="3:9">
       <c r="C89" s="8"/>
       <c r="D89" s="12" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F89" s="12">
-        <v>138000</v>
+        <v>55000</v>
       </c>
       <c r="G89" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H89" s="12">
-        <v>138000</v>
+        <v>660000</v>
       </c>
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="3:9">
       <c r="C90" s="8"/>
       <c r="D90" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F90" s="11">
         <v>75000</v>
       </c>
       <c r="G90" s="11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H90" s="11">
-        <v>2025000</v>
+        <v>300000</v>
       </c>
       <c r="I90" s="10"/>
     </row>
@@ -2391,16 +2391,16 @@
         <v>19</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F91" s="12">
         <v>75000</v>
       </c>
       <c r="G91" s="12">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H91" s="12">
-        <v>2700000</v>
+        <v>300000</v>
       </c>
       <c r="I91" s="10"/>
     </row>
@@ -2410,16 +2410,16 @@
         <v>19</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F92" s="11">
         <v>75000</v>
       </c>
       <c r="G92" s="11">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H92" s="11">
-        <v>2625000</v>
+        <v>450000</v>
       </c>
       <c r="I92" s="10"/>
     </row>
@@ -2429,35 +2429,35 @@
         <v>19</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F93" s="12">
         <v>75000</v>
       </c>
       <c r="G93" s="12">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H93" s="12">
-        <v>2100000</v>
+        <v>750000</v>
       </c>
       <c r="I93" s="10"/>
     </row>
     <row r="94" spans="3:9">
       <c r="C94" s="8"/>
       <c r="D94" s="11" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F94" s="11">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G94" s="11">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H94" s="11">
-        <v>2025000</v>
+        <v>55000</v>
       </c>
       <c r="I94" s="10"/>
     </row>
@@ -2467,35 +2467,35 @@
         <v>19</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F95" s="12">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G95" s="12">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="H95" s="12">
-        <v>2925000</v>
+        <v>-55000</v>
       </c>
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="3:9">
       <c r="C96" s="8"/>
       <c r="D96" s="11" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F96" s="11">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G96" s="11">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H96" s="11">
-        <v>2325000</v>
+        <v>120000</v>
       </c>
       <c r="I96" s="10"/>
     </row>
@@ -2505,16 +2505,16 @@
         <v>55</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F97" s="12">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G97" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" s="12">
-        <v>300000</v>
+        <v>138000</v>
       </c>
       <c r="I97" s="10"/>
     </row>
@@ -2594,7 +2594,7 @@
         <v>58</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F105" s="11">
         <v>75000</v>
@@ -2610,7 +2610,7 @@
     <row r="106" spans="3:9">
       <c r="C106" s="8"/>
       <c r="E106" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F106" s="12">
         <v>75000</v>
@@ -2626,7 +2626,7 @@
     <row r="107" spans="3:9">
       <c r="C107" s="8"/>
       <c r="E107" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F107" s="11">
         <v>60000</v>
